--- a/src/jungle/jungle_ds.xlsx
+++ b/src/jungle/jungle_ds.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Python\KYC\src\jungle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7943A3A-C6EB-433D-A5BA-254CDABA15A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9578B0B2-BF74-482F-8C25-C548B4AD4CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jungle" sheetId="1" r:id="rId1"/>
@@ -28,27 +28,15 @@
     <t>Normale</t>
   </si>
   <si>
-    <t>Rara Olografica</t>
-  </si>
-  <si>
     <t>Metronomo</t>
   </si>
   <si>
-    <t>1 normale</t>
-  </si>
-  <si>
     <t>Minimizzazione</t>
   </si>
   <si>
-    <t>2 normale</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Lotta</t>
   </si>
   <si>
-    <t>2 qls</t>
-  </si>
-  <si>
     <t>https://wiki.pokemoncentral.it/Clefable_(Jungle_1)#/media/File:ClefableJungle1.jpg</t>
   </si>
   <si>
@@ -64,15 +52,9 @@
     <t>Saetta</t>
   </si>
   <si>
-    <t>3 elettro</t>
-  </si>
-  <si>
     <t>Lotta</t>
   </si>
   <si>
-    <t>1 qls</t>
-  </si>
-  <si>
     <t>https://wiki.pokemoncentral.it/Electrode_(Jungle_2)#/media/File:ElectrodeJungle2.jpg</t>
   </si>
   <si>
@@ -91,9 +73,6 @@
     <t>Lanciafiamme</t>
   </si>
   <si>
-    <t>2 normale 2 fuoco</t>
-  </si>
-  <si>
     <t>Acqua</t>
   </si>
   <si>
@@ -109,9 +88,6 @@
     <t>20x</t>
   </si>
   <si>
-    <t>2 elettro 1 normale</t>
-  </si>
-  <si>
     <t>https://wiki.pokemoncentral.it/Jolteon_(Jungle_4)#/media/File:JolteonJungle4.jpg</t>
   </si>
   <si>
@@ -127,12 +103,6 @@
     <t>Cometa Pugno</t>
   </si>
   <si>
-    <t>4 normale</t>
-  </si>
-  <si>
-    <t>3 qls</t>
-  </si>
-  <si>
     <t>https://wiki.pokemoncentral.it/Kangaskhan_(Jungle_5)#/media/File:KangaskhanJungle5.jpg</t>
   </si>
   <si>
@@ -163,15 +133,9 @@
     <t>20+</t>
   </si>
   <si>
-    <t>1 foglia 1 normale</t>
-  </si>
-  <si>
     <t>Mega Pugno</t>
   </si>
   <si>
-    <t>2 erba 2 normale</t>
-  </si>
-  <si>
     <t>https://wiki.pokemoncentral.it/Nidoqueen_(Jungle_7)#/media/File:NidoqueenJungle7.jpg</t>
   </si>
   <si>
@@ -184,9 +148,6 @@
     <t>Uragano</t>
   </si>
   <si>
-    <t>3 normale</t>
-  </si>
-  <si>
     <t>https://wiki.pokemoncentral.it/Pidgeot_(Jungle_8)#/media/File:PidgeotJungle8.jpg</t>
   </si>
   <si>
@@ -196,9 +157,6 @@
     <t>Presa di Ferro</t>
   </si>
   <si>
-    <t>2 erba</t>
-  </si>
-  <si>
     <t>Ghigliottina</t>
   </si>
   <si>
@@ -211,9 +169,6 @@
     <t>Danza delle Spade</t>
   </si>
   <si>
-    <t>1 erba</t>
-  </si>
-  <si>
     <t>Lacerazione</t>
   </si>
   <si>
@@ -241,9 +196,6 @@
     <t>30+</t>
   </si>
   <si>
-    <t>2 acqua 1 normale</t>
-  </si>
-  <si>
     <t>https://wiki.pokemoncentral.it/Vaporeon_(Jungle_12)#/media/File:VaporeonJungle.jpg</t>
   </si>
   <si>
@@ -283,9 +235,6 @@
     <t>40x</t>
   </si>
   <si>
-    <t>3 erba</t>
-  </si>
-  <si>
     <t>https://wiki.pokemoncentral.it/Vileplume_(Jungle_15)#/media/File:VileplumeJungle15.jpg</t>
   </si>
   <si>
@@ -316,9 +265,6 @@
     <t>Megassorbimento</t>
   </si>
   <si>
-    <t>4 erba</t>
-  </si>
-  <si>
     <t>https://wiki.pokemoncentral.it/Butterfree_(Jungle_33)#/media/File:ButterfreeJungle33.jpg</t>
   </si>
   <si>
@@ -340,9 +286,6 @@
     <t>Teletrasporto</t>
   </si>
   <si>
-    <t>1 psico</t>
-  </si>
-  <si>
     <t>Grande Ovosplosione</t>
   </si>
   <si>
@@ -394,15 +337,9 @@
     <t>30x</t>
   </si>
   <si>
-    <t>2 lotta</t>
-  </si>
-  <si>
     <t>Cerca Amici</t>
   </si>
   <si>
-    <t>2 lotta 1 normale</t>
-  </si>
-  <si>
     <t>https://wiki.pokemoncentral.it/Marowak_(Jungle_39)#/media/File:MarowakJungle39.jpg</t>
   </si>
   <si>
@@ -412,9 +349,6 @@
     <t>Doppiocalcio</t>
   </si>
   <si>
-    <t>1 erba 2 normale</t>
-  </si>
-  <si>
     <t>https://wiki.pokemoncentral.it/Nidorina_(Jungle_40)#/media/File:NidorinaJungle40.jpg</t>
   </si>
   <si>
@@ -457,9 +391,6 @@
     <t>Pestone</t>
   </si>
   <si>
-    <t>2 fuoco 1 normale</t>
-  </si>
-  <si>
     <t>https://wiki.pokemoncentral.it/Rapidash_(Jungle_44)#/media/File:RapidashJungle44.jpg</t>
   </si>
   <si>
@@ -469,30 +400,18 @@
     <t>Incornata</t>
   </si>
   <si>
-    <t>1 lotta 2 normale</t>
-  </si>
-  <si>
     <t>Cozzare</t>
   </si>
   <si>
-    <t>4 lotta</t>
-  </si>
-  <si>
     <t>https://wiki.pokemoncentral.it/Rhydon_(Jungle_45)#/media/File:RhydonJungle45.jpg</t>
   </si>
   <si>
     <t>Seaking</t>
   </si>
   <si>
-    <t>1 acqua</t>
-  </si>
-  <si>
     <t>Cascata</t>
   </si>
   <si>
-    <t>1 acqua 1 normale</t>
-  </si>
-  <si>
     <t>https://wiki.pokemoncentral.it/Seaking_(Jungle_46)#/media/File:SeakingJungle46.jpg</t>
   </si>
   <si>
@@ -592,15 +511,6 @@
     <t>Codata</t>
   </si>
   <si>
-    <t>psico - 30</t>
-  </si>
-  <si>
-    <t>lotta - 30</t>
-  </si>
-  <si>
-    <t>elettro - 30</t>
-  </si>
-  <si>
     <t>https://media.pokemoncentral.it/wiki/b/bf/EeveeJungle.jpg</t>
   </si>
   <si>
@@ -682,9 +592,6 @@
     <t>Scintilla</t>
   </si>
   <si>
-    <t>2 elettro</t>
-  </si>
-  <si>
     <t>https://media.pokemoncentral.it/wiki/6/6f/PikachuJungle60.png</t>
   </si>
   <si>
@@ -694,9 +601,6 @@
     <t>Fulmisguardo</t>
   </si>
   <si>
-    <t>1 lotta 2 qls</t>
-  </si>
-  <si>
     <t>https://media.pokemoncentral.it/wiki/0/06/RhyhornJungle61.jpg</t>
   </si>
   <si>
@@ -721,10 +625,106 @@
     <t>Sanguisuga</t>
   </si>
   <si>
-    <t>1 erba 1 qls</t>
-  </si>
-  <si>
     <t>https://media.pokemoncentral.it/wiki/4/4c/VenonatJungle63.jpg</t>
+  </si>
+  <si>
+    <t>2 Erba</t>
+  </si>
+  <si>
+    <t>1 Erba</t>
+  </si>
+  <si>
+    <t>3 Erba</t>
+  </si>
+  <si>
+    <t>4 Erba</t>
+  </si>
+  <si>
+    <t>1 Normale</t>
+  </si>
+  <si>
+    <t>2 Normale</t>
+  </si>
+  <si>
+    <t>4 Normale</t>
+  </si>
+  <si>
+    <t>2 Erba 2 Normale</t>
+  </si>
+  <si>
+    <t>3 Normale</t>
+  </si>
+  <si>
+    <t>1 Erba 2 Normale</t>
+  </si>
+  <si>
+    <t>Psico - 30</t>
+  </si>
+  <si>
+    <t>1 Psico</t>
+  </si>
+  <si>
+    <t>Lotta - 30</t>
+  </si>
+  <si>
+    <t>2 Lotta</t>
+  </si>
+  <si>
+    <t>2 Lotta 1 Normale</t>
+  </si>
+  <si>
+    <t>1 Lotta 2 Normale</t>
+  </si>
+  <si>
+    <t>4 Lotta</t>
+  </si>
+  <si>
+    <t>2 Qls</t>
+  </si>
+  <si>
+    <t>1 Qls</t>
+  </si>
+  <si>
+    <t>3 Qls</t>
+  </si>
+  <si>
+    <t>1 Lotta 2 Qls</t>
+  </si>
+  <si>
+    <t>1 Erba 1 Qls</t>
+  </si>
+  <si>
+    <t>1 Erba 1 Normale</t>
+  </si>
+  <si>
+    <t>3 Elettro</t>
+  </si>
+  <si>
+    <t>2 Elettro 1 Normale</t>
+  </si>
+  <si>
+    <t>Elettro - 30</t>
+  </si>
+  <si>
+    <t>2 Elettro</t>
+  </si>
+  <si>
+    <t>2 Normale 2 Fuoco</t>
+  </si>
+  <si>
+    <t>2 Fuoco 1 Normale</t>
+  </si>
+  <si>
+    <t>2 Acqua 1 Normale</t>
+  </si>
+  <si>
+    <t>1 Acqua</t>
+  </si>
+  <si>
+    <t>1 Acqua 1 Normale</t>
+  </si>
+  <si>
+    <t>Rara olografica</t>
   </si>
 </sst>
 </file>
@@ -1578,8 +1578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" topLeftCell="K10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1604,52 +1604,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="B1" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="C1" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="D1" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="E1" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="F1" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="G1" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="H1" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="I1" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="J1" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="K1" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="L1" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="M1" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="N1" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="O1" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="P1" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -1660,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>234</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1669,39 +1669,39 @@
         <v>70</v>
       </c>
       <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
+        <v>207</v>
+      </c>
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>212</v>
+      </c>
+      <c r="O2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P2" t="s">
         <v>5</v>
-      </c>
-      <c r="L2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" t="s">
-        <v>190</v>
-      </c>
-      <c r="O2" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>234</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1710,42 +1710,42 @@
         <v>90</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>6</v>
+        <v>207</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K3">
         <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>14</v>
+        <v>225</v>
       </c>
       <c r="M3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O3" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="P3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>234</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1754,42 +1754,42 @@
         <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>6</v>
+        <v>207</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="K4">
         <v>60</v>
       </c>
       <c r="L4" t="s">
-        <v>23</v>
+        <v>229</v>
       </c>
       <c r="M4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="O4" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="P4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>234</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1798,124 +1798,124 @@
         <v>70</v>
       </c>
       <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>207</v>
+      </c>
+      <c r="J5" t="s">
         <v>20</v>
       </c>
-      <c r="H5" t="s">
+      <c r="K5" t="s">
         <v>21</v>
       </c>
-      <c r="I5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" t="s">
-        <v>28</v>
-      </c>
       <c r="L5" t="s">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="M5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O5" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="P5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>234</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="K6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>208</v>
       </c>
       <c r="M6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N6" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="O6" t="s">
-        <v>36</v>
+        <v>221</v>
       </c>
       <c r="P6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>234</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="O7" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="P7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>234</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1924,42 +1924,42 @@
         <v>90</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>224</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K8">
         <v>50</v>
       </c>
       <c r="L8" t="s">
-        <v>49</v>
+        <v>209</v>
       </c>
       <c r="M8" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="O8" t="s">
-        <v>36</v>
+        <v>221</v>
       </c>
       <c r="P8" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>234</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1968,168 +1968,168 @@
         <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H9">
         <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>6</v>
+        <v>207</v>
       </c>
       <c r="J9" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K9">
         <v>30</v>
       </c>
       <c r="L9" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="M9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N9" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="P9" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>234</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H10">
         <v>20</v>
       </c>
       <c r="I10" t="s">
-        <v>58</v>
+        <v>202</v>
       </c>
       <c r="J10" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="K10">
         <v>50</v>
       </c>
       <c r="L10" t="s">
-        <v>49</v>
+        <v>209</v>
       </c>
       <c r="M10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O10" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="P10" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>234</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>70</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>63</v>
+        <v>203</v>
       </c>
       <c r="J11" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="K11">
         <v>30</v>
       </c>
       <c r="L11" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="M11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N11" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="P11" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>234</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>90</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="H12">
         <v>30</v>
       </c>
       <c r="I12" t="s">
-        <v>35</v>
+        <v>208</v>
       </c>
       <c r="M12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N12" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="O12" t="s">
-        <v>36</v>
+        <v>221</v>
       </c>
       <c r="P12" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>2</v>
+        <v>234</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2138,42 +2138,42 @@
         <v>80</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>6</v>
+        <v>207</v>
       </c>
       <c r="J13" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="K13" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="L13" t="s">
-        <v>73</v>
+        <v>231</v>
       </c>
       <c r="M13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O13" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="P13" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>2</v>
+        <v>234</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2182,36 +2182,36 @@
         <v>70</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="G14" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="H14">
         <v>10</v>
       </c>
       <c r="I14" t="s">
-        <v>58</v>
+        <v>202</v>
       </c>
       <c r="M14" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N14" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="P14" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>2</v>
+        <v>234</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -2220,39 +2220,39 @@
         <v>80</v>
       </c>
       <c r="G15" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="I15" t="s">
-        <v>63</v>
+        <v>203</v>
       </c>
       <c r="J15" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="K15">
         <v>20</v>
       </c>
       <c r="L15" t="s">
-        <v>58</v>
+        <v>202</v>
       </c>
       <c r="M15" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O15" t="s">
-        <v>8</v>
+        <v>219</v>
       </c>
       <c r="P15" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
+        <v>234</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -2261,36 +2261,36 @@
         <v>80</v>
       </c>
       <c r="F16" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G16" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="H16" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="I16" t="s">
-        <v>87</v>
+        <v>204</v>
       </c>
       <c r="M16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O16" t="s">
-        <v>8</v>
+        <v>219</v>
       </c>
       <c r="P16" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
+        <v>234</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2299,31 +2299,31 @@
         <v>80</v>
       </c>
       <c r="G17" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="I17" t="s">
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="J17" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="K17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L17" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="M17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N17" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="O17" t="s">
-        <v>8</v>
+        <v>219</v>
       </c>
       <c r="P17" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -2334,7 +2334,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2343,39 +2343,39 @@
         <v>70</v>
       </c>
       <c r="G18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" t="s">
+        <v>206</v>
+      </c>
+      <c r="J18" t="s">
         <v>3</v>
       </c>
-      <c r="I18" t="s">
+      <c r="L18" t="s">
+        <v>207</v>
+      </c>
+      <c r="M18" t="s">
         <v>4</v>
       </c>
-      <c r="J18" t="s">
+      <c r="N18" t="s">
+        <v>212</v>
+      </c>
+      <c r="O18" t="s">
+        <v>219</v>
+      </c>
+      <c r="P18" t="s">
         <v>5</v>
-      </c>
-      <c r="L18" t="s">
-        <v>6</v>
-      </c>
-      <c r="M18" t="s">
-        <v>7</v>
-      </c>
-      <c r="N18" t="s">
-        <v>190</v>
-      </c>
-      <c r="O18" t="s">
-        <v>8</v>
-      </c>
-      <c r="P18" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2384,42 +2384,42 @@
         <v>90</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H19">
         <v>20</v>
       </c>
       <c r="I19" t="s">
-        <v>6</v>
+        <v>207</v>
       </c>
       <c r="J19" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K19">
         <v>20</v>
       </c>
       <c r="L19" t="s">
-        <v>14</v>
+        <v>225</v>
       </c>
       <c r="M19" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O19" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="P19" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -2428,42 +2428,42 @@
         <v>70</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>6</v>
+        <v>207</v>
       </c>
       <c r="J20" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="K20">
         <v>60</v>
       </c>
       <c r="L20" t="s">
-        <v>23</v>
+        <v>229</v>
       </c>
       <c r="M20" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="O20" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="P20" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2472,124 +2472,124 @@
         <v>70</v>
       </c>
       <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" t="s">
+        <v>207</v>
+      </c>
+      <c r="J21" t="s">
         <v>20</v>
       </c>
-      <c r="H21" t="s">
+      <c r="K21" t="s">
         <v>21</v>
       </c>
-      <c r="I21" t="s">
-        <v>6</v>
-      </c>
-      <c r="J21" t="s">
-        <v>27</v>
-      </c>
-      <c r="K21" t="s">
-        <v>28</v>
-      </c>
       <c r="L21" t="s">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="M21" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O21" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="P21" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E22">
         <v>90</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="J22" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="K22" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="L22" t="s">
-        <v>35</v>
+        <v>208</v>
       </c>
       <c r="M22" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N22" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="O22" t="s">
-        <v>36</v>
+        <v>221</v>
       </c>
       <c r="P22" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E23">
         <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H23" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M23" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="O23" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="P23" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -2598,42 +2598,42 @@
         <v>90</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I24" t="s">
-        <v>47</v>
+        <v>224</v>
       </c>
       <c r="J24" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K24">
         <v>50</v>
       </c>
       <c r="L24" t="s">
-        <v>49</v>
+        <v>209</v>
       </c>
       <c r="M24" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="O24" t="s">
-        <v>36</v>
+        <v>221</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -2642,168 +2642,168 @@
         <v>80</v>
       </c>
       <c r="G25" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H25">
         <v>20</v>
       </c>
       <c r="I25" t="s">
-        <v>6</v>
+        <v>207</v>
       </c>
       <c r="J25" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K25">
         <v>30</v>
       </c>
       <c r="L25" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="M25" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N25" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="P25" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>60</v>
       </c>
       <c r="G26" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H26">
         <v>20</v>
       </c>
       <c r="I26" t="s">
-        <v>58</v>
+        <v>202</v>
       </c>
       <c r="J26" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="K26">
         <v>50</v>
       </c>
       <c r="L26" t="s">
-        <v>49</v>
+        <v>209</v>
       </c>
       <c r="M26" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O26" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="P26" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E27">
         <v>70</v>
       </c>
       <c r="G27" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>63</v>
+        <v>203</v>
       </c>
       <c r="J27" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="K27">
         <v>30</v>
       </c>
       <c r="L27" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="M27" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N27" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="P27" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E28">
         <v>90</v>
       </c>
       <c r="F28" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="G28" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="H28">
         <v>30</v>
       </c>
       <c r="I28" t="s">
-        <v>35</v>
+        <v>208</v>
       </c>
       <c r="M28" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N28" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="O28" t="s">
-        <v>36</v>
+        <v>221</v>
       </c>
       <c r="P28" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -2812,42 +2812,42 @@
         <v>80</v>
       </c>
       <c r="G29" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>6</v>
+        <v>207</v>
       </c>
       <c r="J29" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="K29" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="L29" t="s">
-        <v>73</v>
+        <v>231</v>
       </c>
       <c r="M29" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O29" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="P29" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2856,36 +2856,36 @@
         <v>70</v>
       </c>
       <c r="F30" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="G30" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="H30">
         <v>10</v>
       </c>
       <c r="I30" t="s">
-        <v>58</v>
+        <v>202</v>
       </c>
       <c r="M30" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N30" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="P30" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -2894,39 +2894,39 @@
         <v>80</v>
       </c>
       <c r="G31" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="I31" t="s">
-        <v>63</v>
+        <v>203</v>
       </c>
       <c r="J31" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="K31">
         <v>20</v>
       </c>
       <c r="L31" t="s">
-        <v>58</v>
+        <v>202</v>
       </c>
       <c r="M31" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O31" t="s">
-        <v>8</v>
+        <v>219</v>
       </c>
       <c r="P31" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -2935,36 +2935,36 @@
         <v>80</v>
       </c>
       <c r="F32" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G32" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="H32" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="I32" t="s">
-        <v>87</v>
+        <v>204</v>
       </c>
       <c r="M32" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O32" t="s">
-        <v>8</v>
+        <v>219</v>
       </c>
       <c r="P32" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2973,42 +2973,42 @@
         <v>80</v>
       </c>
       <c r="G33" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="I33" t="s">
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="J33" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="K33" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L33" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="M33" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N33" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="O33" t="s">
-        <v>8</v>
+        <v>219</v>
       </c>
       <c r="P33" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -3017,42 +3017,42 @@
         <v>70</v>
       </c>
       <c r="G34" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="H34">
         <v>20</v>
       </c>
       <c r="I34" t="s">
-        <v>6</v>
+        <v>207</v>
       </c>
       <c r="J34" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="K34">
         <v>40</v>
       </c>
       <c r="L34" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="M34" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N34" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="P34" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -3061,36 +3061,36 @@
         <v>70</v>
       </c>
       <c r="F35" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="G35" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="H35" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="M35" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N35" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="P35" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -3099,39 +3099,39 @@
         <v>80</v>
       </c>
       <c r="G36" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="I36" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="J36" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="K36" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="L36" t="s">
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="M36" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O36" t="s">
-        <v>36</v>
+        <v>221</v>
       </c>
       <c r="P36" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -3140,42 +3140,42 @@
         <v>70</v>
       </c>
       <c r="G37" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="H37">
         <v>20</v>
       </c>
       <c r="I37" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="J37" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="K37">
         <v>40</v>
       </c>
       <c r="L37" t="s">
-        <v>35</v>
+        <v>208</v>
       </c>
       <c r="M37" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N37" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="P37" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -3184,83 +3184,83 @@
         <v>60</v>
       </c>
       <c r="G38" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="I38" t="s">
-        <v>63</v>
+        <v>203</v>
       </c>
       <c r="J38" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="K38">
         <v>20</v>
       </c>
       <c r="L38" t="s">
-        <v>58</v>
+        <v>202</v>
       </c>
       <c r="M38" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O38" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="P38" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D39" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E39">
         <v>90</v>
       </c>
       <c r="G39" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="H39">
         <v>10</v>
       </c>
       <c r="I39" t="s">
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="J39" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="L39" t="s">
-        <v>6</v>
+        <v>207</v>
       </c>
       <c r="M39" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N39" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="O39" t="s">
-        <v>36</v>
+        <v>221</v>
       </c>
       <c r="P39" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -3269,42 +3269,42 @@
         <v>60</v>
       </c>
       <c r="G40" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H40" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="I40" t="s">
-        <v>124</v>
+        <v>215</v>
       </c>
       <c r="J40" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="L40" t="s">
-        <v>126</v>
+        <v>216</v>
       </c>
       <c r="M40" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="N40" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="O40" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="P40" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -3313,39 +3313,39 @@
         <v>70</v>
       </c>
       <c r="G41" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="I41" t="s">
-        <v>63</v>
+        <v>203</v>
       </c>
       <c r="J41" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="K41" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="L41" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="M41" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="O41" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="P41" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C42" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -3354,39 +3354,39 @@
         <v>60</v>
       </c>
       <c r="G42" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="I42" t="s">
-        <v>58</v>
+        <v>202</v>
       </c>
       <c r="J42" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="K42">
         <v>30</v>
       </c>
       <c r="L42" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="M42" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O42" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="P42" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B43" t="s">
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -3395,42 +3395,42 @@
         <v>70</v>
       </c>
       <c r="G43" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="H43">
         <v>20</v>
       </c>
       <c r="I43" t="s">
-        <v>6</v>
+        <v>207</v>
       </c>
       <c r="J43" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="K43">
         <v>30</v>
       </c>
       <c r="L43" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="M43" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N43" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="P43" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -3439,42 +3439,42 @@
         <v>70</v>
       </c>
       <c r="G44" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="H44" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I44" t="s">
-        <v>124</v>
+        <v>215</v>
       </c>
       <c r="J44" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="K44">
         <v>50</v>
       </c>
       <c r="L44" t="s">
-        <v>126</v>
+        <v>216</v>
       </c>
       <c r="M44" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="O44" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="P44" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -3483,39 +3483,39 @@
         <v>70</v>
       </c>
       <c r="G45" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I45" t="s">
-        <v>6</v>
+        <v>207</v>
       </c>
       <c r="J45" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="K45">
         <v>30</v>
       </c>
       <c r="L45" t="s">
-        <v>145</v>
+        <v>230</v>
       </c>
       <c r="M45" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="P45" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -3524,45 +3524,45 @@
         <v>100</v>
       </c>
       <c r="G46" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="H46">
         <v>30</v>
       </c>
       <c r="I46" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="J46" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="K46">
         <v>50</v>
       </c>
       <c r="L46" t="s">
-        <v>151</v>
+        <v>218</v>
       </c>
       <c r="M46" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="N46" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="O46" t="s">
-        <v>36</v>
+        <v>221</v>
       </c>
       <c r="P46" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="B47" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C47" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -3571,89 +3571,89 @@
         <v>70</v>
       </c>
       <c r="G47" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="H47">
         <v>10</v>
       </c>
       <c r="I47" t="s">
-        <v>154</v>
+        <v>232</v>
       </c>
       <c r="J47" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="K47">
         <v>30</v>
       </c>
       <c r="L47" t="s">
-        <v>156</v>
+        <v>233</v>
       </c>
       <c r="M47" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O47" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="P47" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D48" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E48">
         <v>60</v>
       </c>
       <c r="G48" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I48" t="s">
-        <v>6</v>
+        <v>207</v>
       </c>
       <c r="J48" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="K48" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="L48" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="M48" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N48" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="O48" t="s">
-        <v>8</v>
+        <v>219</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C49" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -3662,637 +3662,637 @@
         <v>70</v>
       </c>
       <c r="G49" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="H49">
         <v>10</v>
       </c>
       <c r="I49" t="s">
-        <v>63</v>
+        <v>203</v>
       </c>
       <c r="J49" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="K49">
         <v>30</v>
       </c>
       <c r="L49" t="s">
-        <v>58</v>
+        <v>202</v>
       </c>
       <c r="M49" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O49" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="P49" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="B50" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C50" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="D50" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E50">
         <v>40</v>
       </c>
       <c r="G50" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="H50">
         <v>10</v>
       </c>
       <c r="I50" t="s">
-        <v>63</v>
+        <v>203</v>
       </c>
       <c r="J50" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="L50" t="s">
-        <v>63</v>
+        <v>203</v>
       </c>
       <c r="M50" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O50" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="P50" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="D51" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E51">
         <v>40</v>
       </c>
       <c r="G51" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="I51" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="J51" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="K51" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L51" t="s">
-        <v>124</v>
+        <v>215</v>
       </c>
       <c r="M51" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="N51" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="O51" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="P51" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="B52" t="s">
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="D52" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E52">
         <v>50</v>
       </c>
       <c r="G52" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="I52" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="J52" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K52" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L52" t="s">
-        <v>8</v>
+        <v>219</v>
       </c>
       <c r="M52" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N52" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="O52" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="P52" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="B53" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C53" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="D53" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E53">
         <v>50</v>
       </c>
       <c r="G53" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="I53" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="J53" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="K53">
         <v>20</v>
       </c>
       <c r="L53" t="s">
-        <v>58</v>
+        <v>202</v>
       </c>
       <c r="M53" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O53" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="P53" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="B54" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" t="s">
+        <v>154</v>
+      </c>
+      <c r="D54" t="s">
         <v>24</v>
-      </c>
-      <c r="C54" t="s">
-        <v>181</v>
-      </c>
-      <c r="D54" t="s">
-        <v>32</v>
       </c>
       <c r="E54">
         <v>40</v>
       </c>
       <c r="G54" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="H54">
         <v>10</v>
       </c>
       <c r="I54" t="s">
-        <v>154</v>
+        <v>232</v>
       </c>
       <c r="M54" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="D55" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E55">
         <v>60</v>
       </c>
       <c r="G55" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="I55" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="J55" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="K55">
         <v>20</v>
       </c>
       <c r="L55" t="s">
-        <v>8</v>
+        <v>219</v>
       </c>
       <c r="M55" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N55" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="O55" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="P55" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="D56" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E56">
         <v>30</v>
       </c>
       <c r="F56" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="G56" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="H56">
         <v>10</v>
       </c>
       <c r="I56" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="M56" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="P56" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="B57" t="s">
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="D57" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E57">
         <v>50</v>
       </c>
       <c r="G57" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="H57">
         <v>10</v>
       </c>
       <c r="I57" t="s">
-        <v>8</v>
+        <v>219</v>
       </c>
       <c r="M57" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N57" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="O57" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="P57" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="B58" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C58" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="D58" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E58">
         <v>60</v>
       </c>
       <c r="G58" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="H58" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="I58" t="s">
-        <v>63</v>
+        <v>203</v>
       </c>
       <c r="J58" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="L58" t="s">
-        <v>58</v>
+        <v>202</v>
       </c>
       <c r="M58" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="O58" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="P58" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="B59" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C59" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="D59" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E59">
         <v>50</v>
       </c>
       <c r="G59" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="H59">
         <v>10</v>
       </c>
       <c r="I59" t="s">
-        <v>63</v>
+        <v>203</v>
       </c>
       <c r="J59" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="L59" t="s">
-        <v>58</v>
+        <v>202</v>
       </c>
       <c r="M59" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O59" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="P59" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="B60" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C60" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="D60" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E60">
         <v>40</v>
       </c>
       <c r="G60" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="H60">
         <v>20</v>
       </c>
       <c r="I60" t="s">
-        <v>8</v>
+        <v>219</v>
       </c>
       <c r="J60" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="L60" t="s">
-        <v>58</v>
+        <v>202</v>
       </c>
       <c r="M60" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O60" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="P60" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="D61" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E61">
         <v>50</v>
       </c>
       <c r="G61" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="H61">
         <v>20</v>
       </c>
       <c r="I61" t="s">
+        <v>228</v>
+      </c>
+      <c r="M61" t="s">
+        <v>10</v>
+      </c>
+      <c r="O61" t="s">
         <v>220</v>
       </c>
-      <c r="M61" t="s">
-        <v>15</v>
-      </c>
-      <c r="O61" t="s">
-        <v>16</v>
-      </c>
       <c r="P61" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="D62" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E62">
         <v>70</v>
       </c>
       <c r="G62" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="I62" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="J62" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="K62">
         <v>30</v>
       </c>
       <c r="L62" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M62" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="N62" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="O62" t="s">
-        <v>36</v>
+        <v>221</v>
       </c>
       <c r="P62" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="B63" t="s">
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="D63" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="E63">
         <v>50</v>
       </c>
       <c r="G63" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="H63">
         <v>10</v>
       </c>
       <c r="I63" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="J63" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="L63" t="s">
-        <v>36</v>
+        <v>221</v>
       </c>
       <c r="M63" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N63" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="P63" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="B64" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C64" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="D64" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E64">
         <v>40</v>
       </c>
       <c r="G64" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="H64">
         <v>10</v>
       </c>
       <c r="I64" t="s">
-        <v>63</v>
+        <v>203</v>
       </c>
       <c r="J64" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="K64">
         <v>10</v>
       </c>
       <c r="L64" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="M64" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O64" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="P64" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/src/jungle/jungle_ds.xlsx
+++ b/src/jungle/jungle_ds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Python\KYC\src\jungle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9578B0B2-BF74-482F-8C25-C548B4AD4CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D260ABD5-52AC-401E-9BDF-18EB2C72251F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jungle" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="230">
   <si>
     <t xml:space="preserve">Cleafable </t>
   </si>
@@ -640,24 +640,6 @@
     <t>4 Erba</t>
   </si>
   <si>
-    <t>1 Normale</t>
-  </si>
-  <si>
-    <t>2 Normale</t>
-  </si>
-  <si>
-    <t>4 Normale</t>
-  </si>
-  <si>
-    <t>2 Erba 2 Normale</t>
-  </si>
-  <si>
-    <t>3 Normale</t>
-  </si>
-  <si>
-    <t>1 Erba 2 Normale</t>
-  </si>
-  <si>
     <t>Psico - 30</t>
   </si>
   <si>
@@ -670,12 +652,6 @@
     <t>2 Lotta</t>
   </si>
   <si>
-    <t>2 Lotta 1 Normale</t>
-  </si>
-  <si>
-    <t>1 Lotta 2 Normale</t>
-  </si>
-  <si>
     <t>4 Lotta</t>
   </si>
   <si>
@@ -694,37 +670,46 @@
     <t>1 Erba 1 Qls</t>
   </si>
   <si>
-    <t>1 Erba 1 Normale</t>
-  </si>
-  <si>
     <t>3 Elettro</t>
   </si>
   <si>
-    <t>2 Elettro 1 Normale</t>
-  </si>
-  <si>
     <t>Elettro - 30</t>
   </si>
   <si>
     <t>2 Elettro</t>
   </si>
   <si>
-    <t>2 Normale 2 Fuoco</t>
-  </si>
-  <si>
-    <t>2 Fuoco 1 Normale</t>
-  </si>
-  <si>
-    <t>2 Acqua 1 Normale</t>
-  </si>
-  <si>
     <t>1 Acqua</t>
   </si>
   <si>
-    <t>1 Acqua 1 Normale</t>
-  </si>
-  <si>
     <t>Rara olografica</t>
+  </si>
+  <si>
+    <t>2 Qls 2 Fuoco</t>
+  </si>
+  <si>
+    <t>2 Elettro 1 Qls</t>
+  </si>
+  <si>
+    <t>4 Qls</t>
+  </si>
+  <si>
+    <t>2 Erba 2 Qls</t>
+  </si>
+  <si>
+    <t>2 Acqua 1 Qls</t>
+  </si>
+  <si>
+    <t>2 Lotta 1 Qls</t>
+  </si>
+  <si>
+    <t>1 Erba 2 Qls</t>
+  </si>
+  <si>
+    <t>2 Fuoco 1 Qls</t>
+  </si>
+  <si>
+    <t>1 Acqua 1 Qls</t>
   </si>
 </sst>
 </file>
@@ -1578,8 +1563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1660,7 +1645,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1672,22 +1657,22 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="J2" t="s">
         <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M2" t="s">
         <v>10</v>
       </c>
       <c r="N2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="O2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="P2" t="s">
         <v>5</v>
@@ -1701,7 +1686,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1716,7 +1701,7 @@
         <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="J3" t="s">
         <v>9</v>
@@ -1725,13 +1710,13 @@
         <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="M3" t="s">
         <v>10</v>
       </c>
       <c r="O3" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P3" t="s">
         <v>11</v>
@@ -1745,7 +1730,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1760,7 +1745,7 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="J4" t="s">
         <v>16</v>
@@ -1769,13 +1754,13 @@
         <v>60</v>
       </c>
       <c r="L4" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="M4" t="s">
         <v>17</v>
       </c>
       <c r="O4" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P4" t="s">
         <v>18</v>
@@ -1789,7 +1774,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1804,7 +1789,7 @@
         <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="J5" t="s">
         <v>20</v>
@@ -1813,13 +1798,13 @@
         <v>21</v>
       </c>
       <c r="L5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="M5" t="s">
         <v>10</v>
       </c>
       <c r="O5" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P5" t="s">
         <v>22</v>
@@ -1833,7 +1818,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -1848,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="J6" t="s">
         <v>26</v>
@@ -1857,16 +1842,16 @@
         <v>21</v>
       </c>
       <c r="L6" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="M6" t="s">
         <v>10</v>
       </c>
       <c r="N6" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="O6" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="P6" t="s">
         <v>27</v>
@@ -1880,7 +1865,7 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -1901,7 +1886,7 @@
         <v>29</v>
       </c>
       <c r="O7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P7" t="s">
         <v>32</v>
@@ -1915,7 +1900,7 @@
         <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1930,7 +1915,7 @@
         <v>36</v>
       </c>
       <c r="I8" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="J8" t="s">
         <v>37</v>
@@ -1939,13 +1924,13 @@
         <v>50</v>
       </c>
       <c r="L8" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="M8" t="s">
         <v>29</v>
       </c>
       <c r="O8" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="P8" t="s">
         <v>38</v>
@@ -1959,7 +1944,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1974,7 +1959,7 @@
         <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="J9" t="s">
         <v>41</v>
@@ -1983,13 +1968,13 @@
         <v>30</v>
       </c>
       <c r="L9" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M9" t="s">
         <v>7</v>
       </c>
       <c r="N9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="P9" t="s">
         <v>42</v>
@@ -2003,7 +1988,7 @@
         <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
@@ -2027,13 +2012,13 @@
         <v>50</v>
       </c>
       <c r="L10" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="M10" t="s">
         <v>13</v>
       </c>
       <c r="O10" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P10" t="s">
         <v>46</v>
@@ -2047,7 +2032,7 @@
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
@@ -2068,13 +2053,13 @@
         <v>30</v>
       </c>
       <c r="L11" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M11" t="s">
         <v>13</v>
       </c>
       <c r="N11" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="P11" t="s">
         <v>50</v>
@@ -2088,7 +2073,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -2106,16 +2091,16 @@
         <v>30</v>
       </c>
       <c r="I12" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="M12" t="s">
         <v>10</v>
       </c>
       <c r="N12" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="O12" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="P12" t="s">
         <v>54</v>
@@ -2129,7 +2114,7 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2144,7 +2129,7 @@
         <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="J13" t="s">
         <v>56</v>
@@ -2153,13 +2138,13 @@
         <v>57</v>
       </c>
       <c r="L13" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="M13" t="s">
         <v>7</v>
       </c>
       <c r="O13" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P13" t="s">
         <v>58</v>
@@ -2173,7 +2158,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2197,7 +2182,7 @@
         <v>13</v>
       </c>
       <c r="N14" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="P14" t="s">
         <v>62</v>
@@ -2211,7 +2196,7 @@
         <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -2238,7 +2223,7 @@
         <v>13</v>
       </c>
       <c r="O15" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="P15" t="s">
         <v>66</v>
@@ -2252,7 +2237,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -2276,7 +2261,7 @@
         <v>13</v>
       </c>
       <c r="O16" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="P16" t="s">
         <v>71</v>
@@ -2290,7 +2275,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2302,7 +2287,7 @@
         <v>73</v>
       </c>
       <c r="I17" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="J17" t="s">
         <v>74</v>
@@ -2311,16 +2296,16 @@
         <v>15</v>
       </c>
       <c r="L17" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M17" t="s">
         <v>10</v>
       </c>
       <c r="N17" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="O17" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="P17" t="s">
         <v>75</v>
@@ -2346,22 +2331,22 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="J18" t="s">
         <v>3</v>
       </c>
       <c r="L18" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M18" t="s">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="O18" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="P18" t="s">
         <v>5</v>
@@ -2390,7 +2375,7 @@
         <v>20</v>
       </c>
       <c r="I19" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="J19" t="s">
         <v>9</v>
@@ -2399,13 +2384,13 @@
         <v>20</v>
       </c>
       <c r="L19" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="M19" t="s">
         <v>10</v>
       </c>
       <c r="O19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P19" t="s">
         <v>11</v>
@@ -2434,7 +2419,7 @@
         <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="J20" t="s">
         <v>16</v>
@@ -2443,13 +2428,13 @@
         <v>60</v>
       </c>
       <c r="L20" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="M20" t="s">
         <v>17</v>
       </c>
       <c r="O20" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P20" t="s">
         <v>18</v>
@@ -2478,7 +2463,7 @@
         <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="J21" t="s">
         <v>20</v>
@@ -2487,13 +2472,13 @@
         <v>21</v>
       </c>
       <c r="L21" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="M21" t="s">
         <v>10</v>
       </c>
       <c r="O21" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P21" t="s">
         <v>22</v>
@@ -2522,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="J22" t="s">
         <v>26</v>
@@ -2531,16 +2516,16 @@
         <v>21</v>
       </c>
       <c r="L22" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="M22" t="s">
         <v>10</v>
       </c>
       <c r="N22" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="O22" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="P22" t="s">
         <v>27</v>
@@ -2575,7 +2560,7 @@
         <v>29</v>
       </c>
       <c r="O23" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P23" t="s">
         <v>32</v>
@@ -2604,7 +2589,7 @@
         <v>36</v>
       </c>
       <c r="I24" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="J24" t="s">
         <v>37</v>
@@ -2613,13 +2598,13 @@
         <v>50</v>
       </c>
       <c r="L24" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="M24" t="s">
         <v>29</v>
       </c>
       <c r="O24" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>38</v>
@@ -2648,7 +2633,7 @@
         <v>20</v>
       </c>
       <c r="I25" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="J25" t="s">
         <v>41</v>
@@ -2657,13 +2642,13 @@
         <v>30</v>
       </c>
       <c r="L25" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M25" t="s">
         <v>7</v>
       </c>
       <c r="N25" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="P25" t="s">
         <v>42</v>
@@ -2701,13 +2686,13 @@
         <v>50</v>
       </c>
       <c r="L26" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="M26" t="s">
         <v>13</v>
       </c>
       <c r="O26" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P26" t="s">
         <v>46</v>
@@ -2742,13 +2727,13 @@
         <v>30</v>
       </c>
       <c r="L27" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M27" t="s">
         <v>13</v>
       </c>
       <c r="N27" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="P27" t="s">
         <v>50</v>
@@ -2780,16 +2765,16 @@
         <v>30</v>
       </c>
       <c r="I28" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="M28" t="s">
         <v>10</v>
       </c>
       <c r="N28" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="O28" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="P28" t="s">
         <v>54</v>
@@ -2818,7 +2803,7 @@
         <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="J29" t="s">
         <v>56</v>
@@ -2827,13 +2812,13 @@
         <v>57</v>
       </c>
       <c r="L29" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="M29" t="s">
         <v>7</v>
       </c>
       <c r="O29" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P29" t="s">
         <v>58</v>
@@ -2871,7 +2856,7 @@
         <v>13</v>
       </c>
       <c r="N30" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="P30" t="s">
         <v>62</v>
@@ -2912,7 +2897,7 @@
         <v>13</v>
       </c>
       <c r="O31" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="P31" t="s">
         <v>66</v>
@@ -2950,7 +2935,7 @@
         <v>13</v>
       </c>
       <c r="O32" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="P32" t="s">
         <v>71</v>
@@ -2976,7 +2961,7 @@
         <v>73</v>
       </c>
       <c r="I33" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="J33" t="s">
         <v>74</v>
@@ -2985,16 +2970,16 @@
         <v>15</v>
       </c>
       <c r="L33" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M33" t="s">
         <v>10</v>
       </c>
       <c r="N33" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="O33" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="P33" t="s">
         <v>75</v>
@@ -3023,7 +3008,7 @@
         <v>20</v>
       </c>
       <c r="I34" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="J34" t="s">
         <v>80</v>
@@ -3038,7 +3023,7 @@
         <v>13</v>
       </c>
       <c r="N34" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="P34" t="s">
         <v>81</v>
@@ -3070,13 +3055,13 @@
         <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M35" t="s">
         <v>7</v>
       </c>
       <c r="N35" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="P35" t="s">
         <v>85</v>
@@ -3102,7 +3087,7 @@
         <v>87</v>
       </c>
       <c r="I36" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="J36" t="s">
         <v>88</v>
@@ -3111,13 +3096,13 @@
         <v>21</v>
       </c>
       <c r="L36" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="M36" t="s">
         <v>13</v>
       </c>
       <c r="O36" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="P36" t="s">
         <v>89</v>
@@ -3146,7 +3131,7 @@
         <v>20</v>
       </c>
       <c r="I37" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J37" t="s">
         <v>92</v>
@@ -3155,13 +3140,13 @@
         <v>40</v>
       </c>
       <c r="L37" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="M37" t="s">
         <v>7</v>
       </c>
       <c r="N37" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="P37" t="s">
         <v>93</v>
@@ -3202,7 +3187,7 @@
         <v>13</v>
       </c>
       <c r="O38" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P38" t="s">
         <v>97</v>
@@ -3231,22 +3216,22 @@
         <v>10</v>
       </c>
       <c r="I39" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="J39" t="s">
         <v>100</v>
       </c>
       <c r="L39" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M39" t="s">
         <v>10</v>
       </c>
       <c r="N39" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="O39" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="P39" t="s">
         <v>101</v>
@@ -3275,22 +3260,22 @@
         <v>104</v>
       </c>
       <c r="I40" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="J40" t="s">
         <v>105</v>
       </c>
       <c r="L40" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="M40" t="s">
         <v>34</v>
       </c>
       <c r="N40" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="O40" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P40" t="s">
         <v>106</v>
@@ -3325,13 +3310,13 @@
         <v>104</v>
       </c>
       <c r="L41" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="M41" t="s">
         <v>29</v>
       </c>
       <c r="O41" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P41" t="s">
         <v>109</v>
@@ -3366,13 +3351,13 @@
         <v>30</v>
       </c>
       <c r="L42" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M42" t="s">
         <v>13</v>
       </c>
       <c r="O42" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P42" t="s">
         <v>112</v>
@@ -3401,7 +3386,7 @@
         <v>20</v>
       </c>
       <c r="I43" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="J43" t="s">
         <v>115</v>
@@ -3410,13 +3395,13 @@
         <v>30</v>
       </c>
       <c r="L43" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M43" t="s">
         <v>10</v>
       </c>
       <c r="N43" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="P43" t="s">
         <v>116</v>
@@ -3445,7 +3430,7 @@
         <v>21</v>
       </c>
       <c r="I44" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="J44" t="s">
         <v>119</v>
@@ -3454,13 +3439,13 @@
         <v>50</v>
       </c>
       <c r="L44" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="M44" t="s">
         <v>29</v>
       </c>
       <c r="O44" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P44" t="s">
         <v>120</v>
@@ -3489,7 +3474,7 @@
         <v>36</v>
       </c>
       <c r="I45" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="J45" t="s">
         <v>91</v>
@@ -3498,7 +3483,7 @@
         <v>30</v>
       </c>
       <c r="L45" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M45" t="s">
         <v>17</v>
@@ -3530,7 +3515,7 @@
         <v>30</v>
       </c>
       <c r="I46" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J46" t="s">
         <v>126</v>
@@ -3539,16 +3524,16 @@
         <v>50</v>
       </c>
       <c r="L46" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="M46" t="s">
         <v>34</v>
       </c>
       <c r="N46" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="O46" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="P46" t="s">
         <v>127</v>
@@ -3577,7 +3562,7 @@
         <v>10</v>
       </c>
       <c r="I47" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="J47" t="s">
         <v>129</v>
@@ -3586,13 +3571,13 @@
         <v>30</v>
       </c>
       <c r="L47" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M47" t="s">
         <v>7</v>
       </c>
       <c r="O47" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P47" t="s">
         <v>130</v>
@@ -3621,7 +3606,7 @@
         <v>36</v>
       </c>
       <c r="I48" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="J48" t="s">
         <v>132</v>
@@ -3630,16 +3615,16 @@
         <v>36</v>
       </c>
       <c r="L48" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M48" t="s">
         <v>10</v>
       </c>
       <c r="N48" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="O48" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="P48" s="1" t="s">
         <v>133</v>
@@ -3683,7 +3668,7 @@
         <v>13</v>
       </c>
       <c r="O49" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P49" t="s">
         <v>136</v>
@@ -3724,7 +3709,7 @@
         <v>13</v>
       </c>
       <c r="O50" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P50" t="s">
         <v>157</v>
@@ -3750,7 +3735,7 @@
         <v>159</v>
       </c>
       <c r="I51" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="J51" t="s">
         <v>84</v>
@@ -3759,16 +3744,16 @@
         <v>15</v>
       </c>
       <c r="L51" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="M51" t="s">
         <v>34</v>
       </c>
       <c r="N51" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="O51" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P51" t="s">
         <v>160</v>
@@ -3794,7 +3779,7 @@
         <v>162</v>
       </c>
       <c r="I52" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="J52" t="s">
         <v>14</v>
@@ -3803,16 +3788,16 @@
         <v>15</v>
       </c>
       <c r="L52" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="M52" t="s">
         <v>10</v>
       </c>
       <c r="N52" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="O52" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P52" t="s">
         <v>163</v>
@@ -3838,7 +3823,7 @@
         <v>165</v>
       </c>
       <c r="I53" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="J53" t="s">
         <v>166</v>
@@ -3853,7 +3838,7 @@
         <v>13</v>
       </c>
       <c r="O53" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P53" t="s">
         <v>167</v>
@@ -3882,7 +3867,7 @@
         <v>10</v>
       </c>
       <c r="I54" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="M54" t="s">
         <v>7</v>
@@ -3911,7 +3896,7 @@
         <v>73</v>
       </c>
       <c r="I55" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="J55" t="s">
         <v>171</v>
@@ -3920,16 +3905,16 @@
         <v>20</v>
       </c>
       <c r="L55" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="M55" t="s">
         <v>10</v>
       </c>
       <c r="N55" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="O55" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P55" t="s">
         <v>172</v>
@@ -3961,7 +3946,7 @@
         <v>10</v>
       </c>
       <c r="I56" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="M56" t="s">
         <v>29</v>
@@ -3993,16 +3978,16 @@
         <v>10</v>
       </c>
       <c r="I57" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="M57" t="s">
         <v>10</v>
       </c>
       <c r="N57" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="O57" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P57" t="s">
         <v>178</v>
@@ -4043,7 +4028,7 @@
         <v>29</v>
       </c>
       <c r="O58" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P58" t="s">
         <v>181</v>
@@ -4084,7 +4069,7 @@
         <v>13</v>
       </c>
       <c r="O59" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P59" t="s">
         <v>185</v>
@@ -4113,7 +4098,7 @@
         <v>20</v>
       </c>
       <c r="I60" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="J60" t="s">
         <v>111</v>
@@ -4125,7 +4110,7 @@
         <v>13</v>
       </c>
       <c r="O60" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P60" t="s">
         <v>187</v>
@@ -4154,13 +4139,13 @@
         <v>20</v>
       </c>
       <c r="I61" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="M61" t="s">
         <v>10</v>
       </c>
       <c r="O61" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P61" t="s">
         <v>190</v>
@@ -4186,7 +4171,7 @@
         <v>192</v>
       </c>
       <c r="I62" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="J62" t="s">
         <v>125</v>
@@ -4195,16 +4180,16 @@
         <v>30</v>
       </c>
       <c r="L62" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="M62" t="s">
         <v>34</v>
       </c>
       <c r="N62" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="O62" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="P62" t="s">
         <v>193</v>
@@ -4233,19 +4218,19 @@
         <v>10</v>
       </c>
       <c r="I63" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="J63" t="s">
         <v>197</v>
       </c>
       <c r="L63" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="M63" t="s">
         <v>7</v>
       </c>
       <c r="N63" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="P63" t="s">
         <v>198</v>
@@ -4283,13 +4268,13 @@
         <v>10</v>
       </c>
       <c r="L64" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="M64" t="s">
         <v>13</v>
       </c>
       <c r="O64" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P64" t="s">
         <v>201</v>
@@ -4302,5 +4287,6 @@
     <hyperlink ref="P48" r:id="rId3" location="/media/File:TaurosJungle47.jpg" xr:uid="{B46A228C-77CB-46FC-A609-A79EDA5123EC}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>